--- a/data/pca/factorExposure/factorExposure_2018-06-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0224929428925487</v>
+        <v>0.02105707851279303</v>
       </c>
       <c r="C2">
-        <v>0.02687785452044552</v>
+        <v>-0.019064747101354</v>
       </c>
       <c r="D2">
-        <v>-0.02580411224126413</v>
+        <v>-0.02205195918597879</v>
       </c>
       <c r="E2">
-        <v>-0.01466566248625368</v>
+        <v>-0.01632225200756506</v>
       </c>
       <c r="F2">
-        <v>-0.1132509635132867</v>
+        <v>0.004902272892816979</v>
       </c>
       <c r="G2">
-        <v>-0.05969337031148887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04625884024465195</v>
+      </c>
+      <c r="H2">
+        <v>-0.05573164530165206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.09870848280997485</v>
+        <v>0.08114928159019612</v>
       </c>
       <c r="C3">
-        <v>-0.01454393713189889</v>
+        <v>0.01196583961744656</v>
       </c>
       <c r="D3">
-        <v>-0.08637652894410863</v>
+        <v>-0.0271376230068666</v>
       </c>
       <c r="E3">
-        <v>-0.03198353912481656</v>
+        <v>-0.009542595153682457</v>
       </c>
       <c r="F3">
-        <v>-0.3981109427421916</v>
+        <v>-0.0285674323930371</v>
       </c>
       <c r="G3">
-        <v>-0.149881526847826</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1607562736174428</v>
+      </c>
+      <c r="H3">
+        <v>-0.179990780974368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04441289311923221</v>
+        <v>0.04472329881844152</v>
       </c>
       <c r="C4">
-        <v>0.01950800870168113</v>
+        <v>-0.005535259849565265</v>
       </c>
       <c r="D4">
-        <v>0.01447852769856954</v>
+        <v>-0.04777625940451383</v>
       </c>
       <c r="E4">
-        <v>0.04735010993687627</v>
+        <v>0.0218754166130495</v>
       </c>
       <c r="F4">
-        <v>-0.08702751572043008</v>
+        <v>0.05202305400627799</v>
       </c>
       <c r="G4">
-        <v>-0.05904233833493343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03608595077824737</v>
+      </c>
+      <c r="H4">
+        <v>-0.06006117909869364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02017421347093552</v>
+        <v>0.02534351131107027</v>
       </c>
       <c r="C6">
-        <v>0.01303371337536752</v>
+        <v>-0.004661994199386644</v>
       </c>
       <c r="D6">
-        <v>-0.01304129337855934</v>
+        <v>-0.05140544977301142</v>
       </c>
       <c r="E6">
-        <v>0.02008154704897419</v>
+        <v>0.007673181891405556</v>
       </c>
       <c r="F6">
-        <v>-0.02437753719968665</v>
+        <v>0.0308459262097246</v>
       </c>
       <c r="G6">
-        <v>0.01019301817915423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.009795903508586929</v>
+      </c>
+      <c r="H6">
+        <v>-0.06417451842734583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02352728307758675</v>
+        <v>0.02158463929312925</v>
       </c>
       <c r="C7">
-        <v>0.003358113905065387</v>
+        <v>-0.003182237066360849</v>
       </c>
       <c r="D7">
-        <v>-0.01388234496328807</v>
+        <v>-0.02769745291658538</v>
       </c>
       <c r="E7">
-        <v>0.02968885146210523</v>
+        <v>0.04237215643536079</v>
       </c>
       <c r="F7">
-        <v>-0.05215006329293283</v>
+        <v>0.005706810064514712</v>
       </c>
       <c r="G7">
-        <v>-0.06584442544435792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02081334815697842</v>
+      </c>
+      <c r="H7">
+        <v>-0.04199450244189591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.0182339103985987</v>
+        <v>0.005507441318485178</v>
       </c>
       <c r="C8">
-        <v>0.01554587397604629</v>
+        <v>0.001343037396642669</v>
       </c>
       <c r="D8">
-        <v>-0.007602321325551105</v>
+        <v>-0.01098690501487853</v>
       </c>
       <c r="E8">
-        <v>0.04041995395814896</v>
+        <v>0.006862659329220396</v>
       </c>
       <c r="F8">
-        <v>-0.1038244188675324</v>
+        <v>0.01838903811101562</v>
       </c>
       <c r="G8">
-        <v>-0.05171714430560465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04111855721118345</v>
+      </c>
+      <c r="H8">
+        <v>-0.0466957600126181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03365841517232823</v>
+        <v>0.0355071414539361</v>
       </c>
       <c r="C9">
-        <v>0.01954389261176421</v>
+        <v>-0.001421470931077183</v>
       </c>
       <c r="D9">
-        <v>0.004495166317520954</v>
+        <v>-0.03562714129881773</v>
       </c>
       <c r="E9">
-        <v>0.03678193682510557</v>
+        <v>0.01094903947707113</v>
       </c>
       <c r="F9">
-        <v>-0.09245097491528577</v>
+        <v>0.02762952352036764</v>
       </c>
       <c r="G9">
-        <v>-0.05828430484899539</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04268480225704328</v>
+      </c>
+      <c r="H9">
+        <v>-0.05910983197898695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.0296523129412221</v>
+        <v>0.1045840270138396</v>
       </c>
       <c r="C10">
-        <v>-0.05213673550301066</v>
+        <v>0.02748204156407655</v>
       </c>
       <c r="D10">
-        <v>0.08335114857871555</v>
+        <v>0.1574555487082786</v>
       </c>
       <c r="E10">
-        <v>-0.1152769127158953</v>
+        <v>-0.006809531384271482</v>
       </c>
       <c r="F10">
-        <v>-0.05093321608407923</v>
+        <v>-0.04535951098182043</v>
       </c>
       <c r="G10">
-        <v>0.005713892434342</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02383887320616311</v>
+      </c>
+      <c r="H10">
+        <v>-0.01192388903855027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03450718709652878</v>
+        <v>0.02061396285934932</v>
       </c>
       <c r="C11">
-        <v>0.01763286596255088</v>
+        <v>0.007751052522748064</v>
       </c>
       <c r="D11">
-        <v>-0.01813642423247214</v>
+        <v>-0.040261127186076</v>
       </c>
       <c r="E11">
-        <v>0.02880362134010596</v>
+        <v>-0.0007808630042437952</v>
       </c>
       <c r="F11">
-        <v>-0.04725235653789155</v>
+        <v>0.01101952118634113</v>
       </c>
       <c r="G11">
-        <v>-0.02389771735199356</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02171567500474562</v>
+      </c>
+      <c r="H11">
+        <v>-0.0484365134609809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04225275199674942</v>
+        <v>0.02921803125015605</v>
       </c>
       <c r="C12">
-        <v>0.01892296125582167</v>
+        <v>0.00597523942850835</v>
       </c>
       <c r="D12">
-        <v>-0.01157782878439542</v>
+        <v>-0.04065203917345236</v>
       </c>
       <c r="E12">
-        <v>0.04074777232623206</v>
+        <v>0.008799309993002151</v>
       </c>
       <c r="F12">
-        <v>-0.0322244009057206</v>
+        <v>0.01808389313128721</v>
       </c>
       <c r="G12">
-        <v>-0.01119553339185345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.007718589984768491</v>
+      </c>
+      <c r="H12">
+        <v>-0.02450742605143314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01523499941984219</v>
+        <v>0.02498494067699366</v>
       </c>
       <c r="C13">
-        <v>0.02473074168380643</v>
+        <v>-0.01497963993275322</v>
       </c>
       <c r="D13">
-        <v>-0.01099386578325116</v>
+        <v>-0.0003810592078194293</v>
       </c>
       <c r="E13">
-        <v>-0.005782085857050877</v>
+        <v>-0.01286696525376471</v>
       </c>
       <c r="F13">
-        <v>-0.07896161726943526</v>
+        <v>0.01150919381553435</v>
       </c>
       <c r="G13">
-        <v>-0.04213239606503533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.04920952111330187</v>
+      </c>
+      <c r="H13">
+        <v>-0.0687399630596717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01444186797357597</v>
+        <v>0.01704997463543648</v>
       </c>
       <c r="C14">
-        <v>0.006505019419645836</v>
+        <v>-0.001058112031887815</v>
       </c>
       <c r="D14">
-        <v>0.003363928121004136</v>
+        <v>-0.005638870279740314</v>
       </c>
       <c r="E14">
-        <v>0.03535617119669316</v>
+        <v>0.01319131001668391</v>
       </c>
       <c r="F14">
-        <v>-0.05705698664568443</v>
+        <v>0.01405963137043749</v>
       </c>
       <c r="G14">
-        <v>-0.07123368829134655</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03988986415102101</v>
+      </c>
+      <c r="H14">
+        <v>-0.0127518749538929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02695180696843196</v>
+        <v>0.02241921738196463</v>
       </c>
       <c r="C16">
-        <v>0.02089685104255497</v>
+        <v>0.008357208148451126</v>
       </c>
       <c r="D16">
-        <v>-0.0166685985660622</v>
+        <v>-0.03490711893593713</v>
       </c>
       <c r="E16">
-        <v>0.02256093006839142</v>
+        <v>0.002825328054132002</v>
       </c>
       <c r="F16">
-        <v>-0.05200587819871352</v>
+        <v>0.01639594174717308</v>
       </c>
       <c r="G16">
-        <v>-0.02663136433365208</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02015007710888686</v>
+      </c>
+      <c r="H16">
+        <v>-0.03958573127310274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.04791791058127596</v>
+        <v>0.03429454412126599</v>
       </c>
       <c r="C19">
-        <v>0.02193559099321261</v>
+        <v>-0.0007687784984317974</v>
       </c>
       <c r="D19">
-        <v>-0.013774800064625</v>
+        <v>-0.0215081932299289</v>
       </c>
       <c r="E19">
-        <v>0.03582065094351797</v>
+        <v>0.005312857148115357</v>
       </c>
       <c r="F19">
-        <v>-0.1060838360279708</v>
+        <v>0.02193145697541252</v>
       </c>
       <c r="G19">
-        <v>-0.02517540129950128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05142384224617961</v>
+      </c>
+      <c r="H19">
+        <v>-0.07556603637564541</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0005725863200794018</v>
+        <v>0.009808235579442924</v>
       </c>
       <c r="C20">
-        <v>0.01294628314137861</v>
+        <v>-0.006722199730784207</v>
       </c>
       <c r="D20">
-        <v>0.001614566154630447</v>
+        <v>-0.008701364948396009</v>
       </c>
       <c r="E20">
-        <v>0.03027470233359427</v>
+        <v>0.003630478303041092</v>
       </c>
       <c r="F20">
-        <v>-0.0744842708112969</v>
+        <v>0.01396355142581775</v>
       </c>
       <c r="G20">
-        <v>-0.07049720292598181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04560845209032051</v>
+      </c>
+      <c r="H20">
+        <v>-0.02365120548455971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.002996762009041553</v>
+        <v>0.01564068173350504</v>
       </c>
       <c r="C21">
-        <v>-0.01238693663474837</v>
+        <v>-0.008421248274064725</v>
       </c>
       <c r="D21">
-        <v>-0.01405134497241564</v>
+        <v>-0.008670776146951805</v>
       </c>
       <c r="E21">
-        <v>0.02041538805084677</v>
+        <v>0.01729084093347861</v>
       </c>
       <c r="F21">
-        <v>-0.05247647503711533</v>
+        <v>0.00556742305283084</v>
       </c>
       <c r="G21">
-        <v>-0.02260921599050656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04271862186106796</v>
+      </c>
+      <c r="H21">
+        <v>-0.0493081363047349</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03064367590430404</v>
+        <v>0.01882654379822839</v>
       </c>
       <c r="C24">
-        <v>0.02245968168536768</v>
+        <v>0.0023965499958886</v>
       </c>
       <c r="D24">
-        <v>-0.00726492507049867</v>
+        <v>-0.03593973707482453</v>
       </c>
       <c r="E24">
-        <v>0.00859222676031955</v>
+        <v>0.0003695519950521199</v>
       </c>
       <c r="F24">
-        <v>-0.04454953447698225</v>
+        <v>0.01116152017678584</v>
       </c>
       <c r="G24">
-        <v>-0.02374380535135167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.0133689999841582</v>
+      </c>
+      <c r="H24">
+        <v>-0.04673654304188332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03043043702149262</v>
+        <v>0.02965061537035435</v>
       </c>
       <c r="C25">
-        <v>0.01230098760313706</v>
+        <v>0.0004804056810071252</v>
       </c>
       <c r="D25">
-        <v>-0.01769294405438952</v>
+        <v>-0.03482445913177696</v>
       </c>
       <c r="E25">
-        <v>0.0309246591429259</v>
+        <v>0.00479989072345052</v>
       </c>
       <c r="F25">
-        <v>-0.04984938603742032</v>
+        <v>0.01727714812931613</v>
       </c>
       <c r="G25">
-        <v>-0.006790039062199334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.01933569023156678</v>
+      </c>
+      <c r="H25">
+        <v>-0.04770065139304245</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01983987344645438</v>
+        <v>0.01960143417806894</v>
       </c>
       <c r="C26">
-        <v>0.007433471990918679</v>
+        <v>-0.01774380434804696</v>
       </c>
       <c r="D26">
-        <v>-0.03284106614460598</v>
+        <v>-0.002880501832386908</v>
       </c>
       <c r="E26">
-        <v>0.005474936761033763</v>
+        <v>-0.002374430174969923</v>
       </c>
       <c r="F26">
-        <v>-0.066106365060376</v>
+        <v>-0.001003926954130788</v>
       </c>
       <c r="G26">
-        <v>-0.04359198730490892</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03161980796227829</v>
+      </c>
+      <c r="H26">
+        <v>-0.02414936389551576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05951725684273972</v>
+        <v>0.02342553131048857</v>
       </c>
       <c r="C27">
-        <v>0.02565907600513598</v>
+        <v>0.008559601874957638</v>
       </c>
       <c r="D27">
-        <v>0.02615081071363844</v>
+        <v>-0.01494609517965946</v>
       </c>
       <c r="E27">
-        <v>0.03837358544602882</v>
+        <v>0.006084226939475108</v>
       </c>
       <c r="F27">
-        <v>-0.05526106399469374</v>
+        <v>0.01684457554277539</v>
       </c>
       <c r="G27">
-        <v>-0.04269585971401652</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01657867896717977</v>
+      </c>
+      <c r="H27">
+        <v>-0.004297761253975353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.04472341428721652</v>
+        <v>0.1527469676671856</v>
       </c>
       <c r="C28">
-        <v>-0.05641378115975745</v>
+        <v>0.02685499658289149</v>
       </c>
       <c r="D28">
-        <v>0.1200784213558905</v>
+        <v>0.2230440979873557</v>
       </c>
       <c r="E28">
-        <v>-0.1530798665702006</v>
+        <v>-0.004130996083669341</v>
       </c>
       <c r="F28">
-        <v>-0.04524772399075195</v>
+        <v>-0.04735042958693712</v>
       </c>
       <c r="G28">
-        <v>-0.01702333566932908</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.009989941379244048</v>
+      </c>
+      <c r="H28">
+        <v>0.006522734602765523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02136817200203629</v>
+        <v>0.02170823295931562</v>
       </c>
       <c r="C29">
-        <v>0.00519890249877649</v>
+        <v>0.000860966233150992</v>
       </c>
       <c r="D29">
-        <v>0.003568212985070523</v>
+        <v>-0.007267077214884356</v>
       </c>
       <c r="E29">
-        <v>0.04902515355824749</v>
+        <v>0.01292512588529476</v>
       </c>
       <c r="F29">
-        <v>-0.04947575179788522</v>
+        <v>0.0158573111861584</v>
       </c>
       <c r="G29">
-        <v>-0.06404320198174626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03844348562884349</v>
+      </c>
+      <c r="H29">
+        <v>-0.007199039863084436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.09128457968357905</v>
+        <v>0.05123240019981679</v>
       </c>
       <c r="C30">
-        <v>0.05810143844327309</v>
+        <v>-0.005948572174665483</v>
       </c>
       <c r="D30">
-        <v>-0.009266438513494761</v>
+        <v>-0.06992544208391231</v>
       </c>
       <c r="E30">
-        <v>0.06928556452960401</v>
+        <v>-0.0289864674141537</v>
       </c>
       <c r="F30">
-        <v>-0.09482087343485525</v>
+        <v>0.05013732015535807</v>
       </c>
       <c r="G30">
-        <v>-0.05245126224504074</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.04702772677782071</v>
+      </c>
+      <c r="H30">
+        <v>-0.07121733668880914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06069708963210293</v>
+        <v>0.05413045495047925</v>
       </c>
       <c r="C31">
-        <v>0.02948846261755111</v>
+        <v>0.01331783636239146</v>
       </c>
       <c r="D31">
-        <v>-0.02629479234296097</v>
+        <v>-0.02558190966590024</v>
       </c>
       <c r="E31">
-        <v>-0.0001488445829644472</v>
+        <v>-0.005572219609765547</v>
       </c>
       <c r="F31">
-        <v>-0.04109705764978529</v>
+        <v>0.01006006044193927</v>
       </c>
       <c r="G31">
-        <v>-0.07673694195246135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01579974320989976</v>
+      </c>
+      <c r="H31">
+        <v>-0.01227627397651853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01981555861279673</v>
+        <v>0.01253337504116592</v>
       </c>
       <c r="C32">
-        <v>0.01457977864983556</v>
+        <v>0.0135704790599076</v>
       </c>
       <c r="D32">
-        <v>-0.01745072220172914</v>
+        <v>-0.004970492567895095</v>
       </c>
       <c r="E32">
-        <v>0.07945055746534092</v>
+        <v>0.03054966750538785</v>
       </c>
       <c r="F32">
-        <v>-0.08116115053655421</v>
+        <v>0.0386707759095074</v>
       </c>
       <c r="G32">
-        <v>-0.05665228712547606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02902619864604971</v>
+      </c>
+      <c r="H32">
+        <v>-0.06610932559637528</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04917724262689031</v>
+        <v>0.0394005850162344</v>
       </c>
       <c r="C33">
-        <v>0.01882172843908018</v>
+        <v>0.0007541542950135237</v>
       </c>
       <c r="D33">
-        <v>-0.04833121332778151</v>
+        <v>-0.03334259264588153</v>
       </c>
       <c r="E33">
-        <v>0.02640476595996613</v>
+        <v>-0.02424182663939964</v>
       </c>
       <c r="F33">
-        <v>-0.09042983484155978</v>
+        <v>0.002637610432578569</v>
       </c>
       <c r="G33">
-        <v>-0.0677389976525548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04244233751017035</v>
+      </c>
+      <c r="H33">
+        <v>-0.04694004872406463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03260879106219099</v>
+        <v>0.02650307705145646</v>
       </c>
       <c r="C34">
-        <v>0.02135859087217358</v>
+        <v>0.01655230521632181</v>
       </c>
       <c r="D34">
-        <v>-0.01270265850224077</v>
+        <v>-0.03656970521385896</v>
       </c>
       <c r="E34">
-        <v>0.02760388257737432</v>
+        <v>0.009039236077370838</v>
       </c>
       <c r="F34">
-        <v>-0.05963969441057396</v>
+        <v>0.01811546957281073</v>
       </c>
       <c r="G34">
-        <v>-0.01578134222087724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01713366780706624</v>
+      </c>
+      <c r="H34">
+        <v>-0.04206476886075763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01524413404033994</v>
+        <v>0.02096029823114606</v>
       </c>
       <c r="C36">
-        <v>0.002366494273101051</v>
+        <v>-0.004250866158704407</v>
       </c>
       <c r="D36">
-        <v>-0.00106178718488153</v>
+        <v>-0.001905894235764133</v>
       </c>
       <c r="E36">
-        <v>0.02732902204676493</v>
+        <v>0.006861518454330712</v>
       </c>
       <c r="F36">
-        <v>-0.03564387810261169</v>
+        <v>0.004752346640553966</v>
       </c>
       <c r="G36">
-        <v>-0.03770351959079279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01804364811167927</v>
+      </c>
+      <c r="H36">
+        <v>-0.01436304766491878</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002396660057434069</v>
+        <v>0.02442936157083948</v>
       </c>
       <c r="C38">
-        <v>-0.0121396817545189</v>
+        <v>0.01617254587825336</v>
       </c>
       <c r="D38">
-        <v>-0.01786973442925902</v>
+        <v>-0.007778155750482652</v>
       </c>
       <c r="E38">
-        <v>-0.02603257178217075</v>
+        <v>-0.001984578005993393</v>
       </c>
       <c r="F38">
-        <v>-0.04165724602457079</v>
+        <v>0.007060829518577978</v>
       </c>
       <c r="G38">
-        <v>-0.01984472982371953</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01775727890156877</v>
+      </c>
+      <c r="H38">
+        <v>-0.03915267335587531</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04028819599045221</v>
+        <v>0.01716735544813176</v>
       </c>
       <c r="C39">
-        <v>0.03950037530326934</v>
+        <v>0.0002466760791106179</v>
       </c>
       <c r="D39">
-        <v>-0.02390715330570072</v>
+        <v>-0.0769625210610576</v>
       </c>
       <c r="E39">
-        <v>0.03225392864552225</v>
+        <v>-0.002393709041683301</v>
       </c>
       <c r="F39">
-        <v>-0.0714137908348863</v>
+        <v>0.02065872563340444</v>
       </c>
       <c r="G39">
-        <v>-0.03023745410746602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03501928307607038</v>
+      </c>
+      <c r="H39">
+        <v>-0.07507424231995628</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03704076995458026</v>
+        <v>0.03090676338277512</v>
       </c>
       <c r="C40">
-        <v>0.0723380712297325</v>
+        <v>0.0002532316194835408</v>
       </c>
       <c r="D40">
-        <v>-0.02297383955982099</v>
+        <v>-0.02142369702883361</v>
       </c>
       <c r="E40">
-        <v>-0.008129145106457875</v>
+        <v>-0.02484877970827923</v>
       </c>
       <c r="F40">
-        <v>-0.07733586381973932</v>
+        <v>0.02988056017537025</v>
       </c>
       <c r="G40">
-        <v>-0.04638171483581618</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02004589658193329</v>
+      </c>
+      <c r="H40">
+        <v>-0.06932918828961825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.0003218811264005462</v>
+        <v>0.01201074957914515</v>
       </c>
       <c r="C41">
-        <v>-0.000937949672278956</v>
+        <v>-0.0004369730284391662</v>
       </c>
       <c r="D41">
-        <v>-0.009155228062481027</v>
+        <v>0.01263364155908656</v>
       </c>
       <c r="E41">
-        <v>0.007206589550734968</v>
+        <v>-0.002511882270716158</v>
       </c>
       <c r="F41">
-        <v>-0.006442325630803347</v>
+        <v>-0.001771883714204323</v>
       </c>
       <c r="G41">
-        <v>-0.05591063516343572</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.005380939043539121</v>
+      </c>
+      <c r="H41">
+        <v>0.006036270159224349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3675931038870025</v>
+        <v>0.194439949182638</v>
       </c>
       <c r="C42">
-        <v>-0.5588064804008618</v>
+        <v>-0.0750202807886635</v>
       </c>
       <c r="D42">
-        <v>-0.6110236775132232</v>
+        <v>-0.3376283108116532</v>
       </c>
       <c r="E42">
-        <v>-0.2326890993725174</v>
+        <v>-0.1908233413940862</v>
       </c>
       <c r="F42">
-        <v>0.2654296192047167</v>
+        <v>-0.8682305984421167</v>
       </c>
       <c r="G42">
-        <v>-0.1285448589091122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1722912734328206</v>
+      </c>
+      <c r="H42">
+        <v>0.05551381599302295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.00528547770799188</v>
+        <v>0.01311189395076478</v>
       </c>
       <c r="C43">
-        <v>-0.004954250001044262</v>
+        <v>-0.001293470243490888</v>
       </c>
       <c r="D43">
-        <v>-0.01795629198587755</v>
+        <v>0.01324870788011716</v>
       </c>
       <c r="E43">
-        <v>0.007070385117721498</v>
+        <v>-0.005619289553927821</v>
       </c>
       <c r="F43">
-        <v>-0.02136404310988594</v>
+        <v>-0.008482350150873844</v>
       </c>
       <c r="G43">
-        <v>-0.05317128893060987</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005242793442689066</v>
+      </c>
+      <c r="H43">
+        <v>-0.004632486777850412</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01444804883259483</v>
+        <v>0.01410616141944343</v>
       </c>
       <c r="C44">
-        <v>-0.003934583024790855</v>
+        <v>0.001048055308673163</v>
       </c>
       <c r="D44">
-        <v>-0.0229954036462191</v>
+        <v>-0.02451327078014264</v>
       </c>
       <c r="E44">
-        <v>0.01010787601762242</v>
+        <v>0.005085530169206764</v>
       </c>
       <c r="F44">
-        <v>-0.1133767283009167</v>
+        <v>-0.004378049171790384</v>
       </c>
       <c r="G44">
-        <v>-0.09258080384293021</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03391350083961294</v>
+      </c>
+      <c r="H44">
+        <v>-0.06374782528663495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01861931744549828</v>
+        <v>0.01834201792508101</v>
       </c>
       <c r="C46">
-        <v>0.01238452907394798</v>
+        <v>-0.00421107296217433</v>
       </c>
       <c r="D46">
-        <v>-0.02474786394606604</v>
+        <v>-0.01309236016641998</v>
       </c>
       <c r="E46">
-        <v>0.04312628137087386</v>
+        <v>0.0008333647898189735</v>
       </c>
       <c r="F46">
-        <v>-0.06256448328667677</v>
+        <v>0.01496948419746049</v>
       </c>
       <c r="G46">
-        <v>-0.06819184759025967</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0448145319383523</v>
+      </c>
+      <c r="H46">
+        <v>-0.01850281163874172</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09426846892298171</v>
+        <v>0.07415907494514024</v>
       </c>
       <c r="C47">
-        <v>0.03207079156759944</v>
+        <v>0.02829641535079706</v>
       </c>
       <c r="D47">
-        <v>-0.007275853791273662</v>
+        <v>-0.04604784462572448</v>
       </c>
       <c r="E47">
-        <v>0.02555437705929779</v>
+        <v>0.0004899218183452</v>
       </c>
       <c r="F47">
-        <v>-0.02298621511926765</v>
+        <v>0.02151211329579389</v>
       </c>
       <c r="G47">
-        <v>-0.09679179693453784</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008790025812982771</v>
+      </c>
+      <c r="H47">
+        <v>0.0196676550298734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01641368536233903</v>
+        <v>0.02190804093480822</v>
       </c>
       <c r="C48">
-        <v>0.0062806400176228</v>
+        <v>0.006087150678595233</v>
       </c>
       <c r="D48">
-        <v>-0.01638302292720571</v>
+        <v>-0.008269579928217361</v>
       </c>
       <c r="E48">
-        <v>0.01914590138454346</v>
+        <v>0.0007559463168825792</v>
       </c>
       <c r="F48">
-        <v>-0.05138138821738007</v>
+        <v>0.008330664870386743</v>
       </c>
       <c r="G48">
-        <v>-0.02881680492725588</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02407613868424856</v>
+      </c>
+      <c r="H48">
+        <v>-0.02196294041695419</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08564508575506821</v>
+        <v>0.07200240642247477</v>
       </c>
       <c r="C50">
-        <v>0.03748692684219096</v>
+        <v>0.02556659612438572</v>
       </c>
       <c r="D50">
-        <v>-0.02785303023220752</v>
+        <v>-0.04524420704499594</v>
       </c>
       <c r="E50">
-        <v>0.02947401993494261</v>
+        <v>0.01464767410065121</v>
       </c>
       <c r="F50">
-        <v>-0.0493770292308362</v>
+        <v>0.01879085760509263</v>
       </c>
       <c r="G50">
-        <v>-0.0485933585478369</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.01161133041137338</v>
+      </c>
+      <c r="H50">
+        <v>-0.001680253566897344</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01893403786258141</v>
+        <v>0.01858510659845807</v>
       </c>
       <c r="C51">
-        <v>-0.009613800151329635</v>
+        <v>-0.001921951704743504</v>
       </c>
       <c r="D51">
-        <v>-0.008177142389899906</v>
+        <v>0.006267938849570048</v>
       </c>
       <c r="E51">
-        <v>-0.01048393471581625</v>
+        <v>0.003431547027849561</v>
       </c>
       <c r="F51">
-        <v>-0.1121396085882379</v>
+        <v>-0.01053886036477928</v>
       </c>
       <c r="G51">
-        <v>-0.05748244383484816</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04255985840135937</v>
+      </c>
+      <c r="H51">
+        <v>-0.05908792569012935</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1041664831650785</v>
+        <v>0.09218983777604604</v>
       </c>
       <c r="C53">
-        <v>0.05047827425785927</v>
+        <v>0.03524727927965032</v>
       </c>
       <c r="D53">
-        <v>-0.01397318108775556</v>
+        <v>-0.08255881800090502</v>
       </c>
       <c r="E53">
-        <v>0.04338430140097504</v>
+        <v>0.00557181803413559</v>
       </c>
       <c r="F53">
-        <v>0.03862596892845293</v>
+        <v>0.04833403344137185</v>
       </c>
       <c r="G53">
-        <v>-0.03085327182022874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.04317698329686407</v>
+      </c>
+      <c r="H53">
+        <v>0.04359850699398611</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02089094421669042</v>
+        <v>0.02641941740112163</v>
       </c>
       <c r="C54">
-        <v>0.01108890703338846</v>
+        <v>0.01083867361075709</v>
       </c>
       <c r="D54">
-        <v>0.008588043979633839</v>
+        <v>0.01335984065738258</v>
       </c>
       <c r="E54">
-        <v>0.03588428743954616</v>
+        <v>0.006625408526347453</v>
       </c>
       <c r="F54">
-        <v>-0.05067105825964754</v>
+        <v>0.006474822174773934</v>
       </c>
       <c r="G54">
-        <v>-0.07818116141987679</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03835481064758317</v>
+      </c>
+      <c r="H54">
+        <v>-0.001375372079978224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1052612457788915</v>
+        <v>0.07599904512477217</v>
       </c>
       <c r="C55">
-        <v>0.0263332820433594</v>
+        <v>0.03030843985926662</v>
       </c>
       <c r="D55">
-        <v>0.00498370277525795</v>
+        <v>-0.07819803986317289</v>
       </c>
       <c r="E55">
-        <v>0.07121702837075861</v>
+        <v>0.01325316361081585</v>
       </c>
       <c r="F55">
-        <v>0.03023818102552184</v>
+        <v>0.03923159119810493</v>
       </c>
       <c r="G55">
-        <v>-0.07296246412073787</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01783201576982244</v>
+      </c>
+      <c r="H55">
+        <v>0.05176795474876268</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1444442481690752</v>
+        <v>0.126585470511236</v>
       </c>
       <c r="C56">
-        <v>0.08290308641809965</v>
+        <v>0.05412048870865772</v>
       </c>
       <c r="D56">
-        <v>0.02657826247420742</v>
+        <v>-0.1035252564502639</v>
       </c>
       <c r="E56">
-        <v>0.06727004118470206</v>
+        <v>0.008799746237236778</v>
       </c>
       <c r="F56">
-        <v>0.09287709510943087</v>
+        <v>0.07812672528668022</v>
       </c>
       <c r="G56">
-        <v>0.03813337634462122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07456484654463075</v>
+      </c>
+      <c r="H56">
+        <v>0.05809414226184038</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04657270079175491</v>
+        <v>0.03906868871385594</v>
       </c>
       <c r="C57">
-        <v>0.005207352335906711</v>
+        <v>-0.0109205397407546</v>
       </c>
       <c r="D57">
-        <v>-0.01410080202779958</v>
+        <v>-0.02997146506275308</v>
       </c>
       <c r="E57">
-        <v>-0.01656333729063326</v>
+        <v>-0.005383907259863548</v>
       </c>
       <c r="F57">
-        <v>-0.07379533151327199</v>
+        <v>0.01666296773747837</v>
       </c>
       <c r="G57">
-        <v>-0.06178407893269861</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.05287419787365144</v>
+      </c>
+      <c r="H57">
+        <v>-0.04431770670925123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2097815710366605</v>
+        <v>0.1487742286785346</v>
       </c>
       <c r="C58">
-        <v>0.08449360031607318</v>
+        <v>0.04180368686905222</v>
       </c>
       <c r="D58">
-        <v>-0.1106187468323701</v>
+        <v>-0.1543921557780744</v>
       </c>
       <c r="E58">
-        <v>0.09212465085224167</v>
+        <v>-0.1769164343120668</v>
       </c>
       <c r="F58">
-        <v>-0.3609468881444181</v>
+        <v>-0.02880003400811677</v>
       </c>
       <c r="G58">
-        <v>-0.1138474878640228</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8566343409970593</v>
+      </c>
+      <c r="H58">
+        <v>0.3201565459016671</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.04779202812716067</v>
+        <v>0.1608732047269245</v>
       </c>
       <c r="C59">
-        <v>-0.01373594920472925</v>
+        <v>0.03485100677106895</v>
       </c>
       <c r="D59">
-        <v>0.1107518402113036</v>
+        <v>0.2229067523239809</v>
       </c>
       <c r="E59">
-        <v>-0.1460239992074348</v>
+        <v>-0.02323395890587902</v>
       </c>
       <c r="F59">
-        <v>-0.06498369453097926</v>
+        <v>-0.0278632465403406</v>
       </c>
       <c r="G59">
-        <v>0.007269461823923683</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01293808974723449</v>
+      </c>
+      <c r="H59">
+        <v>-0.02232121529875697</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1622893489518074</v>
+        <v>0.1762832214506695</v>
       </c>
       <c r="C60">
-        <v>0.04590436019902534</v>
+        <v>0.03359157392597749</v>
       </c>
       <c r="D60">
-        <v>-0.05853447611696989</v>
+        <v>-0.02077258173602612</v>
       </c>
       <c r="E60">
-        <v>-0.0811639355049656</v>
+        <v>-0.04837165706923229</v>
       </c>
       <c r="F60">
-        <v>-0.1603499828248914</v>
+        <v>0.0331619829688936</v>
       </c>
       <c r="G60">
-        <v>0.3117113662198393</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.01845809046843545</v>
+      </c>
+      <c r="H60">
+        <v>-0.3846149103374175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02107673925842306</v>
+        <v>0.02052031772948466</v>
       </c>
       <c r="C61">
-        <v>0.009436180295196479</v>
+        <v>0.005761501236097029</v>
       </c>
       <c r="D61">
-        <v>-0.01611302063139827</v>
+        <v>-0.0441928070208053</v>
       </c>
       <c r="E61">
-        <v>0.0168123623931952</v>
+        <v>0.004700717133288072</v>
       </c>
       <c r="F61">
-        <v>-0.03983688521808839</v>
+        <v>0.01906911287472792</v>
       </c>
       <c r="G61">
-        <v>-0.01863734705146657</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01884436070650788</v>
+      </c>
+      <c r="H61">
+        <v>-0.0547263687184622</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01444785413341309</v>
+        <v>0.01236716268198645</v>
       </c>
       <c r="C63">
-        <v>0.007810173753442189</v>
+        <v>-0.002820101564179653</v>
       </c>
       <c r="D63">
-        <v>-0.02097838902924234</v>
+        <v>-0.01756478435873588</v>
       </c>
       <c r="E63">
-        <v>0.03830782006679143</v>
+        <v>0.00478235238085252</v>
       </c>
       <c r="F63">
-        <v>-0.01508699779437044</v>
+        <v>0.0132394320758283</v>
       </c>
       <c r="G63">
-        <v>-0.05652169123793462</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01601778160461294</v>
+      </c>
+      <c r="H63">
+        <v>-0.008584234731980105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03452957950439845</v>
+        <v>0.03934117913254567</v>
       </c>
       <c r="C64">
-        <v>0.002779792194518571</v>
+        <v>0.008705348720501011</v>
       </c>
       <c r="D64">
-        <v>0.008469733484077266</v>
+        <v>-0.03777552321192198</v>
       </c>
       <c r="E64">
-        <v>0.06052339931350029</v>
+        <v>0.01213006724834877</v>
       </c>
       <c r="F64">
-        <v>-0.02806739213067504</v>
+        <v>0.005596959734817896</v>
       </c>
       <c r="G64">
-        <v>-0.05906203647690641</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.003050697770130196</v>
+      </c>
+      <c r="H64">
+        <v>-0.03850611570958691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02134282285210851</v>
+        <v>0.02720758038940198</v>
       </c>
       <c r="C65">
-        <v>0.01474656591446471</v>
+        <v>-0.005834960903307601</v>
       </c>
       <c r="D65">
-        <v>-0.01441283552411441</v>
+        <v>-0.05900243184636492</v>
       </c>
       <c r="E65">
-        <v>0.02179242142980722</v>
+        <v>0.01047612702690736</v>
       </c>
       <c r="F65">
-        <v>-0.01812850671988952</v>
+        <v>0.03353336869305276</v>
       </c>
       <c r="G65">
-        <v>0.01549733701469625</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.004140762938908488</v>
+      </c>
+      <c r="H65">
+        <v>-0.06507131686596894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04073699562316418</v>
+        <v>0.02328510864404364</v>
       </c>
       <c r="C66">
-        <v>0.04264689524435791</v>
+        <v>0.004859247382335966</v>
       </c>
       <c r="D66">
-        <v>-0.02715057643589246</v>
+        <v>-0.09099064455677014</v>
       </c>
       <c r="E66">
-        <v>0.03069928709914634</v>
+        <v>-0.003884518259347731</v>
       </c>
       <c r="F66">
-        <v>-0.06234377707370903</v>
+        <v>0.03875810757995048</v>
       </c>
       <c r="G66">
-        <v>-0.01826611584225311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.02713004942482929</v>
+      </c>
+      <c r="H66">
+        <v>-0.07734674915996484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0142685532141271</v>
+        <v>0.0445400789587465</v>
       </c>
       <c r="C67">
-        <v>-0.002292202339172882</v>
+        <v>0.01923956061320073</v>
       </c>
       <c r="D67">
-        <v>-0.01378108995948233</v>
+        <v>-0.004336728039278591</v>
       </c>
       <c r="E67">
-        <v>-0.04066510117915968</v>
+        <v>-0.005997258060022244</v>
       </c>
       <c r="F67">
-        <v>-0.02741658577902255</v>
+        <v>0.01530873702794682</v>
       </c>
       <c r="G67">
-        <v>-0.006131731261374265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.002086513640129645</v>
+      </c>
+      <c r="H67">
+        <v>-0.03689012119723423</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06371342223670677</v>
+        <v>0.1598501473283218</v>
       </c>
       <c r="C68">
-        <v>-0.03554926095293806</v>
+        <v>0.01434984531421002</v>
       </c>
       <c r="D68">
-        <v>0.1408874324210556</v>
+        <v>0.2243372634481463</v>
       </c>
       <c r="E68">
-        <v>-0.1439986460228674</v>
+        <v>-0.01716742587095133</v>
       </c>
       <c r="F68">
-        <v>-0.05630377683837877</v>
+        <v>-0.05231821159947349</v>
       </c>
       <c r="G68">
-        <v>0.04293032882127824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0273221675671057</v>
+      </c>
+      <c r="H68">
+        <v>0.04069886431229467</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07069843446323247</v>
+        <v>0.05860560327131115</v>
       </c>
       <c r="C69">
-        <v>0.03834031398796574</v>
+        <v>0.02749210007767212</v>
       </c>
       <c r="D69">
-        <v>-0.0006833492843348643</v>
+        <v>-0.04196049131553849</v>
       </c>
       <c r="E69">
-        <v>0.006789139948073936</v>
+        <v>-0.001439460555375993</v>
       </c>
       <c r="F69">
-        <v>-0.01694540187628853</v>
+        <v>0.03120650375038578</v>
       </c>
       <c r="G69">
-        <v>-0.0904511632688742</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01616827689184498</v>
+      </c>
+      <c r="H69">
+        <v>-0.0047677172513655</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07095701079588004</v>
+        <v>0.149672066816125</v>
       </c>
       <c r="C71">
-        <v>-0.04418876370727002</v>
+        <v>0.02216682363497995</v>
       </c>
       <c r="D71">
-        <v>0.1245490423597814</v>
+        <v>0.1961066858105071</v>
       </c>
       <c r="E71">
-        <v>-0.2011564735948868</v>
+        <v>-0.02265841919289763</v>
       </c>
       <c r="F71">
-        <v>-0.05623453191864599</v>
+        <v>-0.05783960135345183</v>
       </c>
       <c r="G71">
-        <v>-0.01170396742392352</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.02178964445005764</v>
+      </c>
+      <c r="H71">
+        <v>0.02361468255765662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1158307841423531</v>
+        <v>0.08189162699213136</v>
       </c>
       <c r="C72">
-        <v>0.08800842645660586</v>
+        <v>0.03776830649183213</v>
       </c>
       <c r="D72">
-        <v>0.01338139508517988</v>
+        <v>-0.07863210855148185</v>
       </c>
       <c r="E72">
-        <v>0.01880662246190266</v>
+        <v>-0.009761765025042373</v>
       </c>
       <c r="F72">
-        <v>-0.1265704414534833</v>
+        <v>0.07989571008348494</v>
       </c>
       <c r="G72">
-        <v>0.09484626287495394</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.04337270506376301</v>
+      </c>
+      <c r="H72">
+        <v>-0.168586698160839</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2382621318185821</v>
+        <v>0.2329553897158376</v>
       </c>
       <c r="C73">
-        <v>0.04750501645123963</v>
+        <v>0.04100149872609609</v>
       </c>
       <c r="D73">
-        <v>-0.06352931971330185</v>
+        <v>-0.07587755404570333</v>
       </c>
       <c r="E73">
-        <v>-0.1938862266466042</v>
+        <v>-0.08193700169790669</v>
       </c>
       <c r="F73">
-        <v>-0.2583407245671143</v>
+        <v>0.03261201316769632</v>
       </c>
       <c r="G73">
-        <v>0.4506887702555364</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.0222262237737497</v>
+      </c>
+      <c r="H73">
+        <v>-0.5074377027796461</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1430333421571005</v>
+        <v>0.1176790741654138</v>
       </c>
       <c r="C74">
-        <v>0.03199914133370706</v>
+        <v>0.05010165498528918</v>
       </c>
       <c r="D74">
-        <v>0.01574209923630867</v>
+        <v>-0.1073802182372994</v>
       </c>
       <c r="E74">
-        <v>0.03777241088217122</v>
+        <v>0.007770093753395765</v>
       </c>
       <c r="F74">
-        <v>0.06391054310473827</v>
+        <v>0.05646697076386992</v>
       </c>
       <c r="G74">
-        <v>0.01530629903387975</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05898347396844932</v>
+      </c>
+      <c r="H74">
+        <v>0.03487784087395542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2372888318456046</v>
+        <v>0.2285889674033916</v>
       </c>
       <c r="C75">
-        <v>0.1395748647457924</v>
+        <v>0.09867267982867714</v>
       </c>
       <c r="D75">
-        <v>0.04618639610087124</v>
+        <v>-0.1677324823244838</v>
       </c>
       <c r="E75">
-        <v>0.09033303499531467</v>
+        <v>-0.005175705306249688</v>
       </c>
       <c r="F75">
-        <v>0.1174286744342569</v>
+        <v>0.1396381498572178</v>
       </c>
       <c r="G75">
-        <v>0.008949056055372393</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1189314732943017</v>
+      </c>
+      <c r="H75">
+        <v>0.1320248647496001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2820868179605345</v>
+        <v>0.2014947649217807</v>
       </c>
       <c r="C76">
-        <v>0.1188833202720581</v>
+        <v>0.09187857551529614</v>
       </c>
       <c r="D76">
-        <v>0.1100638835959471</v>
+        <v>-0.1605597698736578</v>
       </c>
       <c r="E76">
-        <v>0.1275755216608033</v>
+        <v>0.04534511316952012</v>
       </c>
       <c r="F76">
-        <v>0.1556596408307706</v>
+        <v>0.1379501741502965</v>
       </c>
       <c r="G76">
-        <v>0.008385760483201681</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1199790443144563</v>
+      </c>
+      <c r="H76">
+        <v>0.1343750458586286</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1338397156954194</v>
+        <v>0.06821887403101808</v>
       </c>
       <c r="C77">
-        <v>-0.01432454221569375</v>
+        <v>0.007181553019605171</v>
       </c>
       <c r="D77">
-        <v>-0.08994428214279178</v>
+        <v>-0.06255148507516999</v>
       </c>
       <c r="E77">
-        <v>0.04967851617481117</v>
+        <v>-0.01227005387960278</v>
       </c>
       <c r="F77">
-        <v>-0.1901855970016324</v>
+        <v>-0.03046269433794176</v>
       </c>
       <c r="G77">
-        <v>-0.1760408878399257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.09398392558899046</v>
+      </c>
+      <c r="H77">
+        <v>-0.02076781335820876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06874468265496375</v>
+        <v>0.03873740283877249</v>
       </c>
       <c r="C78">
-        <v>0.02707588219150433</v>
+        <v>0.009413516245342675</v>
       </c>
       <c r="D78">
-        <v>-0.0328238167059525</v>
+        <v>-0.05032602178314944</v>
       </c>
       <c r="E78">
-        <v>0.08657181282164372</v>
+        <v>0.007405999509618524</v>
       </c>
       <c r="F78">
-        <v>-0.08579674247117064</v>
+        <v>0.02381037526516441</v>
       </c>
       <c r="G78">
-        <v>-0.02061964777313766</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.05371656849952607</v>
+      </c>
+      <c r="H78">
+        <v>-0.07520573536300353</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1275035580554256</v>
+        <v>0.131018889334045</v>
       </c>
       <c r="C80">
-        <v>-0.6958596445317593</v>
+        <v>0.03164285327598576</v>
       </c>
       <c r="D80">
-        <v>0.4195713036366016</v>
+        <v>-0.04413884289372032</v>
       </c>
       <c r="E80">
-        <v>0.5104786634136744</v>
+        <v>0.9469586550666006</v>
       </c>
       <c r="F80">
-        <v>-0.1222472734719825</v>
+        <v>-0.2024073046205856</v>
       </c>
       <c r="G80">
-        <v>0.1347773919272075</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.140452797700366</v>
+      </c>
+      <c r="H80">
+        <v>-0.01843312751465157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1695972729584535</v>
+        <v>0.1480020434459649</v>
       </c>
       <c r="C81">
-        <v>0.09568318150203704</v>
+        <v>0.06289434506256376</v>
       </c>
       <c r="D81">
-        <v>0.05627941448784961</v>
+        <v>-0.100012697546048</v>
       </c>
       <c r="E81">
-        <v>0.07076970166575214</v>
+        <v>0.01464283378326471</v>
       </c>
       <c r="F81">
-        <v>0.128907802713983</v>
+        <v>0.08502170619682607</v>
       </c>
       <c r="G81">
-        <v>0.02819700547144713</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.07840682352025306</v>
+      </c>
+      <c r="H81">
+        <v>0.09133470278361561</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04549865112875824</v>
+        <v>0.03090504292813194</v>
       </c>
       <c r="C83">
-        <v>0.007525087091341645</v>
+        <v>0.004831550231269913</v>
       </c>
       <c r="D83">
-        <v>-0.0430115702828982</v>
+        <v>-0.02200419319553137</v>
       </c>
       <c r="E83">
-        <v>0.007651365492016206</v>
+        <v>-0.007347812432105335</v>
       </c>
       <c r="F83">
-        <v>-0.05031042604504835</v>
+        <v>0.003901983022480373</v>
       </c>
       <c r="G83">
-        <v>-0.04942866150958689</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03673768234511963</v>
+      </c>
+      <c r="H83">
+        <v>-0.04089352693223463</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.257714911285826</v>
+        <v>0.2177152372288795</v>
       </c>
       <c r="C85">
-        <v>0.1130845604592806</v>
+        <v>0.08222734970643468</v>
       </c>
       <c r="D85">
-        <v>0.06227056283480208</v>
+        <v>-0.1700674854778142</v>
       </c>
       <c r="E85">
-        <v>0.09466864559114999</v>
+        <v>0.002842581065624974</v>
       </c>
       <c r="F85">
-        <v>0.1026985346256343</v>
+        <v>0.1241058956908312</v>
       </c>
       <c r="G85">
-        <v>-0.03833664582724058</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1343139832868647</v>
+      </c>
+      <c r="H85">
+        <v>0.09469908623075034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003771106323517628</v>
+        <v>0.02019929423343555</v>
       </c>
       <c r="C86">
-        <v>-0.005595962650063915</v>
+        <v>-0.001108415590423</v>
       </c>
       <c r="D86">
-        <v>-0.0288792465250887</v>
+        <v>-0.009112728088165128</v>
       </c>
       <c r="E86">
-        <v>0.04752636094759419</v>
+        <v>-0.00856618980697737</v>
       </c>
       <c r="F86">
-        <v>-0.06551183301572255</v>
+        <v>-0.01730680707556601</v>
       </c>
       <c r="G86">
-        <v>-0.01955885327413646</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05669330663779053</v>
+      </c>
+      <c r="H86">
+        <v>-0.08458108058046047</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03855730594794534</v>
+        <v>0.02652721690445764</v>
       </c>
       <c r="C87">
-        <v>-0.009631752213279254</v>
+        <v>0.001208312583169627</v>
       </c>
       <c r="D87">
-        <v>-0.007668910270158132</v>
+        <v>-0.03287865062393814</v>
       </c>
       <c r="E87">
-        <v>0.02828951592183488</v>
+        <v>0.008346555483148893</v>
       </c>
       <c r="F87">
-        <v>-0.1154386775937336</v>
+        <v>0.007147454345002246</v>
       </c>
       <c r="G87">
-        <v>-0.03064594958410961</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.07185333210387465</v>
+      </c>
+      <c r="H87">
+        <v>-0.08184667566651489</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01039724604561247</v>
+        <v>0.03420171170268544</v>
       </c>
       <c r="C88">
-        <v>0.003164172207593434</v>
+        <v>-0.01232489946349955</v>
       </c>
       <c r="D88">
-        <v>0.0132891941133476</v>
+        <v>-0.007270015854896927</v>
       </c>
       <c r="E88">
-        <v>0.004994853202318262</v>
+        <v>0.007800761082493674</v>
       </c>
       <c r="F88">
-        <v>-0.001283200332064212</v>
+        <v>0.008798967113411859</v>
       </c>
       <c r="G88">
-        <v>-0.06110611083001197</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.006804208275485795</v>
+      </c>
+      <c r="H88">
+        <v>-0.01469671129978603</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08919291845695268</v>
+        <v>0.2562899923457906</v>
       </c>
       <c r="C89">
-        <v>-0.05849862265635371</v>
+        <v>0.03554053965183058</v>
       </c>
       <c r="D89">
-        <v>0.180414279178099</v>
+        <v>0.3479852947995605</v>
       </c>
       <c r="E89">
-        <v>-0.2589192032791811</v>
+        <v>-0.03471072350171808</v>
       </c>
       <c r="F89">
-        <v>-0.09992469758304397</v>
+        <v>-0.05547154912775081</v>
       </c>
       <c r="G89">
-        <v>-0.04377491231758533</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.02206677062248761</v>
+      </c>
+      <c r="H89">
+        <v>0.001718102529313134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07841365476095839</v>
+        <v>0.2053997821550452</v>
       </c>
       <c r="C90">
-        <v>-0.09302621835419514</v>
+        <v>0.02878806555893914</v>
       </c>
       <c r="D90">
-        <v>0.2281325673543738</v>
+        <v>0.3073177585998177</v>
       </c>
       <c r="E90">
-        <v>-0.2590428112658837</v>
+        <v>-0.02683097435270453</v>
       </c>
       <c r="F90">
-        <v>-0.05153756548263354</v>
+        <v>-0.07524890319466292</v>
       </c>
       <c r="G90">
-        <v>-0.05331761696216777</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02740290413895146</v>
+      </c>
+      <c r="H90">
+        <v>0.06530578109387175</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.314541289061476</v>
+        <v>0.2323306439986868</v>
       </c>
       <c r="C91">
-        <v>0.1342882679957408</v>
+        <v>0.09844026915253398</v>
       </c>
       <c r="D91">
-        <v>0.05749872152204685</v>
+        <v>-0.1590339037113129</v>
       </c>
       <c r="E91">
-        <v>0.08912285326467786</v>
+        <v>0.0009630196756121626</v>
       </c>
       <c r="F91">
-        <v>0.228807901875318</v>
+        <v>0.1308258180245594</v>
       </c>
       <c r="G91">
-        <v>0.03608057812191618</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1435243551190666</v>
+      </c>
+      <c r="H91">
+        <v>0.1737028607534529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.170041973682182</v>
+        <v>0.2534930312615427</v>
       </c>
       <c r="C92">
-        <v>-0.01592245084429685</v>
+        <v>0.09257090343077648</v>
       </c>
       <c r="D92">
-        <v>0.3537057947935852</v>
+        <v>0.2327405002459746</v>
       </c>
       <c r="E92">
-        <v>-0.280478747383021</v>
+        <v>-0.01148881746071492</v>
       </c>
       <c r="F92">
-        <v>0.1004927593761707</v>
+        <v>-0.003880882982716723</v>
       </c>
       <c r="G92">
-        <v>-0.4775007162412421</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.00876955497702547</v>
+      </c>
+      <c r="H92">
+        <v>0.14906888062777</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08635503814862856</v>
+        <v>0.2302886721788019</v>
       </c>
       <c r="C93">
-        <v>-0.09495546241774869</v>
+        <v>0.04054528329907548</v>
       </c>
       <c r="D93">
-        <v>0.2630930834734795</v>
+        <v>0.3267883875320117</v>
       </c>
       <c r="E93">
-        <v>-0.3715262455969881</v>
+        <v>-0.04911942828225088</v>
       </c>
       <c r="F93">
-        <v>-0.008666892077420519</v>
+        <v>-0.08306131171658708</v>
       </c>
       <c r="G93">
-        <v>0.03374521994174045</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.02449962565857938</v>
+      </c>
+      <c r="H93">
+        <v>0.01043660744957705</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3086633561646162</v>
+        <v>0.2575374324193377</v>
       </c>
       <c r="C94">
-        <v>0.1921949203534352</v>
+        <v>0.08897016155792431</v>
       </c>
       <c r="D94">
-        <v>0.1063661303979687</v>
+        <v>-0.1560561740586798</v>
       </c>
       <c r="E94">
-        <v>0.1086629215562969</v>
+        <v>-0.01184166915524421</v>
       </c>
       <c r="F94">
-        <v>0.1990562696076698</v>
+        <v>0.1749095011865758</v>
       </c>
       <c r="G94">
-        <v>0.06796386651443088</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1238990447587348</v>
+      </c>
+      <c r="H94">
+        <v>0.2047078873824988</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07012709801585451</v>
+        <v>0.05415532403039007</v>
       </c>
       <c r="C95">
-        <v>0.04201233067927798</v>
+        <v>0.02839615961947109</v>
       </c>
       <c r="D95">
-        <v>-0.09834580354250244</v>
+        <v>-0.08815481825453564</v>
       </c>
       <c r="E95">
-        <v>0.06180265098092101</v>
+        <v>-0.08135010769411358</v>
       </c>
       <c r="F95">
-        <v>-0.0121588265042142</v>
+        <v>0.002182325188521373</v>
       </c>
       <c r="G95">
-        <v>-0.1789156877187588</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.02889015655510079</v>
+      </c>
+      <c r="H95">
+        <v>-0.05415535591063046</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1838554100180494</v>
+        <v>0.1801957684528755</v>
       </c>
       <c r="C98">
-        <v>-0.002099909730063028</v>
+        <v>0.06480914647307442</v>
       </c>
       <c r="D98">
-        <v>-0.03538295866407326</v>
+        <v>-0.05106219914280583</v>
       </c>
       <c r="E98">
-        <v>-0.1151917059202796</v>
+        <v>-0.04482806199958842</v>
       </c>
       <c r="F98">
-        <v>-0.1451188000100475</v>
+        <v>0.007429443785740408</v>
       </c>
       <c r="G98">
-        <v>0.3721891254753312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.05828500806083683</v>
+      </c>
+      <c r="H98">
+        <v>-0.3721049092018088</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.006696550524572478</v>
+        <v>0.015106335053032</v>
       </c>
       <c r="C101">
-        <v>0.02114406493978129</v>
+        <v>-0.001038729343334128</v>
       </c>
       <c r="D101">
-        <v>-0.0230668468424975</v>
+        <v>-0.008397200705836527</v>
       </c>
       <c r="E101">
-        <v>0.08737825863800251</v>
+        <v>0.003944258459764322</v>
       </c>
       <c r="F101">
-        <v>-0.1572263282788995</v>
+        <v>0.01861429422569489</v>
       </c>
       <c r="G101">
-        <v>-0.1883415001269027</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1063061479477461</v>
+      </c>
+      <c r="H101">
+        <v>0.01500104771087161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1143639921122612</v>
+        <v>0.1053046423410973</v>
       </c>
       <c r="C102">
-        <v>0.05880145222938896</v>
+        <v>0.03241900687452545</v>
       </c>
       <c r="D102">
-        <v>0.009625579768436436</v>
+        <v>-0.08352004365029672</v>
       </c>
       <c r="E102">
-        <v>0.06403294303900779</v>
+        <v>0.006009250266474221</v>
       </c>
       <c r="F102">
-        <v>0.1027587341732213</v>
+        <v>0.06429521621696113</v>
       </c>
       <c r="G102">
-        <v>-0.002615821264468877</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07383816438902366</v>
+      </c>
+      <c r="H102">
+        <v>0.06898277548858685</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03145813792523788</v>
+        <v>0.01898943329741643</v>
       </c>
       <c r="C103">
-        <v>0.01647735691313056</v>
+        <v>0.006838354224406465</v>
       </c>
       <c r="D103">
-        <v>0.005127101991041926</v>
+        <v>-0.01744930516151937</v>
       </c>
       <c r="E103">
-        <v>0.01800503070534989</v>
+        <v>0.01130081485205898</v>
       </c>
       <c r="F103">
-        <v>-0.009384399181500171</v>
+        <v>0.01294518645226594</v>
       </c>
       <c r="G103">
-        <v>-0.01978850592872524</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0002526863927818273</v>
+      </c>
+      <c r="H103">
+        <v>0.006505060394608145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2501097537634855</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9516768762281917</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.02043216977934125</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02723683187275793</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1418219289461423</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01340936349809879</v>
+      </c>
+      <c r="H104">
+        <v>0.0432252874948063</v>
       </c>
     </row>
   </sheetData>
